--- a/기간.xlsx
+++ b/기간.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukaid\Documents\KAU_KAC_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE002463-A139-4BFA-9D98-4913C01666D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A2B1F0-F535-4D12-93F1-FC1603A70E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86A13884-10CE-4F3E-8F38-96BB6A1B4727}"/>
+    <workbookView xWindow="2385" yWindow="2880" windowWidth="21600" windowHeight="11475" xr2:uid="{86A13884-10CE-4F3E-8F38-96BB6A1B4727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,216 +410,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F149BDDD-201D-4864-A65B-21656C2E5626}">
-  <dimension ref="F7:I72"/>
+  <dimension ref="F7:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M8:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="8" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H8" s="2">
         <v>43800</v>
       </c>
       <c r="I8" s="2">
         <v>43806</v>
       </c>
-    </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L8" s="2">
+        <v>43646</v>
+      </c>
+      <c r="M8" s="2">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H9" s="2">
         <v>43807</v>
       </c>
       <c r="I9" s="2">
         <v>43813</v>
       </c>
-    </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L9" s="2">
+        <v>43653</v>
+      </c>
+      <c r="M9" s="2">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H10" s="2">
         <v>43814</v>
       </c>
       <c r="I10" s="2">
         <v>43820</v>
       </c>
-    </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L10" s="2">
+        <v>43660</v>
+      </c>
+      <c r="M10" s="2">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H11" s="2">
         <v>43821</v>
       </c>
       <c r="I11" s="2">
         <v>43827</v>
       </c>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L11" s="2">
+        <v>43667</v>
+      </c>
+      <c r="M11" s="2">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H12" s="2">
         <v>43828</v>
       </c>
       <c r="I12" s="2">
         <v>43834</v>
       </c>
-    </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L12" s="2">
+        <v>43674</v>
+      </c>
+      <c r="M12" s="2">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H13" s="2">
         <v>43835</v>
       </c>
       <c r="I13" s="2">
         <v>43841</v>
       </c>
-    </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="2">
+        <v>43681</v>
+      </c>
+      <c r="M13" s="2">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H14" s="2">
         <v>43842</v>
       </c>
       <c r="I14" s="2">
         <v>43848</v>
       </c>
-    </row>
-    <row r="15" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L14" s="2">
+        <v>43688</v>
+      </c>
+      <c r="M14" s="2">
+        <v>43694</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H15" s="2">
         <v>43849</v>
       </c>
       <c r="I15" s="2">
         <v>43855</v>
       </c>
-    </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="L15" s="2">
+        <v>43695</v>
+      </c>
+      <c r="M15" s="2">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H16" s="2">
         <v>43856</v>
       </c>
       <c r="I16" s="2">
         <v>43862</v>
       </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L16" s="2">
+        <v>43702</v>
+      </c>
+      <c r="M16" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H17" s="2">
         <v>43863</v>
       </c>
       <c r="I17" s="2">
         <v>43869</v>
       </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="2">
+        <v>43709</v>
+      </c>
+      <c r="M17" s="2">
+        <v>43715</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H18" s="2">
         <v>43870</v>
       </c>
       <c r="I18" s="2">
         <v>43876</v>
       </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L18" s="2">
+        <v>43716</v>
+      </c>
+      <c r="M18" s="2">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2">
         <v>43877</v>
       </c>
       <c r="I19" s="2">
         <v>43883</v>
       </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L19" s="2">
+        <v>43723</v>
+      </c>
+      <c r="M19" s="2">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2">
         <v>43884</v>
       </c>
       <c r="I20" s="2">
         <v>43890</v>
       </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L20" s="2">
+        <v>43730</v>
+      </c>
+      <c r="M20" s="2">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H21" s="2">
         <v>43891</v>
       </c>
       <c r="I21" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L21" s="2">
+        <v>43737</v>
+      </c>
+      <c r="M21" s="2">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H22" s="2">
         <v>43898</v>
       </c>
       <c r="I22" s="2">
         <v>43904</v>
       </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L22" s="2">
+        <v>43744</v>
+      </c>
+      <c r="M22" s="2">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H23" s="2">
         <v>43905</v>
       </c>
       <c r="I23" s="2">
         <v>43911</v>
       </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L23" s="2">
+        <v>43751</v>
+      </c>
+      <c r="M23" s="2">
+        <v>43757</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H24" s="2">
         <v>43912</v>
       </c>
       <c r="I24" s="2">
         <v>43918</v>
       </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L24" s="2">
+        <v>43758</v>
+      </c>
+      <c r="M24" s="2">
+        <v>43764</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H25" s="2">
         <v>43919</v>
       </c>
       <c r="I25" s="2">
         <v>43925</v>
       </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L25" s="2">
+        <v>43765</v>
+      </c>
+      <c r="M25" s="2">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H26" s="2">
         <v>43926</v>
       </c>
       <c r="I26" s="2">
         <v>43932</v>
       </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L26" s="2">
+        <v>43772</v>
+      </c>
+      <c r="M26" s="2">
+        <v>43778</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H27" s="2">
         <v>43933</v>
       </c>
       <c r="I27" s="2">
         <v>43939</v>
       </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L27" s="2">
+        <v>43779</v>
+      </c>
+      <c r="M27" s="2">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H28" s="2">
         <v>43940</v>
       </c>
       <c r="I28" s="2">
         <v>43946</v>
       </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L28" s="2">
+        <v>43786</v>
+      </c>
+      <c r="M28" s="2">
+        <v>43792</v>
+      </c>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H29" s="2">
         <v>43947</v>
       </c>
       <c r="I29" s="2">
         <v>43953</v>
       </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L29" s="2">
+        <v>43793</v>
+      </c>
+      <c r="M29" s="2">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H30" s="2">
         <v>43954</v>
       </c>
       <c r="I30" s="2">
         <v>43960</v>
       </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H31" s="2">
         <v>43961</v>
       </c>
       <c r="I31" s="2">
         <v>43967</v>
       </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H32" s="2">
         <v>43968</v>
       </c>
@@ -627,7 +764,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H33" s="2">
         <v>43975</v>
       </c>
@@ -635,7 +772,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H34" s="2">
         <v>43982</v>
       </c>
@@ -643,7 +780,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H35" s="2">
         <v>43989</v>
       </c>
@@ -651,7 +788,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H36" s="2">
         <v>43996</v>
       </c>
@@ -659,15 +796,17 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H37" s="2">
         <v>44003</v>
       </c>
       <c r="I37" s="2">
         <v>44009</v>
       </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H38" s="2">
         <v>44010</v>
       </c>
@@ -675,7 +814,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H39" s="2">
         <v>44017</v>
       </c>
@@ -683,7 +822,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H40" s="2">
         <v>44024</v>
       </c>
@@ -691,7 +830,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H41" s="2">
         <v>44031</v>
       </c>
@@ -699,7 +838,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H42" s="2">
         <v>44038</v>
       </c>
@@ -707,7 +846,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H43" s="2">
         <v>44045</v>
       </c>
@@ -715,7 +854,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H44" s="2">
         <v>44052</v>
       </c>
@@ -723,7 +862,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H45" s="2">
         <v>44059</v>
       </c>
@@ -731,7 +870,7 @@
         <v>44065</v>
       </c>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H46" s="2">
         <v>44066</v>
       </c>
@@ -739,7 +878,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H47" s="2">
         <v>44073</v>
       </c>
@@ -747,7 +886,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H48" s="2">
         <v>44080</v>
       </c>

--- a/기간.xlsx
+++ b/기간.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukaid\Documents\KAU_KAC_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A2B1F0-F535-4D12-93F1-FC1603A70E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC2A72-394A-42CC-9045-0BABB7B8858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2880" windowWidth="21600" windowHeight="11475" xr2:uid="{86A13884-10CE-4F3E-8F38-96BB6A1B4727}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86A13884-10CE-4F3E-8F38-96BB6A1B4727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>2019.12.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F149BDDD-201D-4864-A65B-21656C2E5626}">
-  <dimension ref="F7:M72"/>
+  <dimension ref="F7:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M8:M29"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -424,17 +419,9 @@
   </cols>
   <sheetData>
     <row r="7" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="H8" s="2">
-        <v>43800</v>
-      </c>
-      <c r="I8" s="2">
-        <v>43806</v>
-      </c>
       <c r="L8" s="2">
         <v>43646</v>
       </c>
@@ -443,12 +430,8 @@
       </c>
     </row>
     <row r="9" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="H9" s="2">
-        <v>43807</v>
-      </c>
-      <c r="I9" s="2">
-        <v>43813</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="L9" s="2">
         <v>43653</v>
       </c>
@@ -458,10 +441,10 @@
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H10" s="2">
-        <v>43814</v>
+        <v>43618</v>
       </c>
       <c r="I10" s="2">
-        <v>43820</v>
+        <v>43624</v>
       </c>
       <c r="L10" s="2">
         <v>43660</v>
@@ -472,10 +455,10 @@
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H11" s="2">
-        <v>43821</v>
+        <v>43625</v>
       </c>
       <c r="I11" s="2">
-        <v>43827</v>
+        <v>43631</v>
       </c>
       <c r="L11" s="2">
         <v>43667</v>
@@ -486,10 +469,10 @@
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H12" s="2">
-        <v>43828</v>
+        <v>43632</v>
       </c>
       <c r="I12" s="2">
-        <v>43834</v>
+        <v>43638</v>
       </c>
       <c r="L12" s="2">
         <v>43674</v>
@@ -500,10 +483,10 @@
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H13" s="2">
-        <v>43835</v>
+        <v>43639</v>
       </c>
       <c r="I13" s="2">
-        <v>43841</v>
+        <v>43645</v>
       </c>
       <c r="L13" s="2">
         <v>43681</v>
@@ -514,10 +497,10 @@
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H14" s="2">
-        <v>43842</v>
+        <v>43646</v>
       </c>
       <c r="I14" s="2">
-        <v>43848</v>
+        <v>43652</v>
       </c>
       <c r="L14" s="2">
         <v>43688</v>
@@ -528,10 +511,10 @@
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H15" s="2">
-        <v>43849</v>
+        <v>43653</v>
       </c>
       <c r="I15" s="2">
-        <v>43855</v>
+        <v>43659</v>
       </c>
       <c r="L15" s="2">
         <v>43695</v>
@@ -542,10 +525,10 @@
     </row>
     <row r="16" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H16" s="2">
-        <v>43856</v>
+        <v>43660</v>
       </c>
       <c r="I16" s="2">
-        <v>43862</v>
+        <v>43666</v>
       </c>
       <c r="L16" s="2">
         <v>43702</v>
@@ -556,10 +539,10 @@
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H17" s="2">
-        <v>43863</v>
+        <v>43667</v>
       </c>
       <c r="I17" s="2">
-        <v>43869</v>
+        <v>43673</v>
       </c>
       <c r="L17" s="2">
         <v>43709</v>
@@ -570,10 +553,10 @@
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H18" s="2">
-        <v>43870</v>
+        <v>43674</v>
       </c>
       <c r="I18" s="2">
-        <v>43876</v>
+        <v>43680</v>
       </c>
       <c r="L18" s="2">
         <v>43716</v>
@@ -584,10 +567,10 @@
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2">
-        <v>43877</v>
+        <v>43681</v>
       </c>
       <c r="I19" s="2">
-        <v>43883</v>
+        <v>43687</v>
       </c>
       <c r="L19" s="2">
         <v>43723</v>
@@ -598,10 +581,10 @@
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2">
-        <v>43884</v>
+        <v>43688</v>
       </c>
       <c r="I20" s="2">
-        <v>43890</v>
+        <v>43694</v>
       </c>
       <c r="L20" s="2">
         <v>43730</v>
@@ -612,10 +595,10 @@
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H21" s="2">
-        <v>43891</v>
+        <v>43695</v>
       </c>
       <c r="I21" s="2">
-        <v>43897</v>
+        <v>43701</v>
       </c>
       <c r="L21" s="2">
         <v>43737</v>
@@ -626,10 +609,10 @@
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H22" s="2">
-        <v>43898</v>
+        <v>43702</v>
       </c>
       <c r="I22" s="2">
-        <v>43904</v>
+        <v>43708</v>
       </c>
       <c r="L22" s="2">
         <v>43744</v>
@@ -640,10 +623,10 @@
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H23" s="2">
-        <v>43905</v>
+        <v>43709</v>
       </c>
       <c r="I23" s="2">
-        <v>43911</v>
+        <v>43715</v>
       </c>
       <c r="L23" s="2">
         <v>43751</v>
@@ -654,10 +637,10 @@
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H24" s="2">
-        <v>43912</v>
+        <v>43716</v>
       </c>
       <c r="I24" s="2">
-        <v>43918</v>
+        <v>43722</v>
       </c>
       <c r="L24" s="2">
         <v>43758</v>
@@ -668,10 +651,10 @@
     </row>
     <row r="25" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H25" s="2">
-        <v>43919</v>
+        <v>43723</v>
       </c>
       <c r="I25" s="2">
-        <v>43925</v>
+        <v>43729</v>
       </c>
       <c r="L25" s="2">
         <v>43765</v>
@@ -682,10 +665,10 @@
     </row>
     <row r="26" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H26" s="2">
-        <v>43926</v>
+        <v>43730</v>
       </c>
       <c r="I26" s="2">
-        <v>43932</v>
+        <v>43736</v>
       </c>
       <c r="L26" s="2">
         <v>43772</v>
@@ -696,10 +679,10 @@
     </row>
     <row r="27" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H27" s="2">
-        <v>43933</v>
+        <v>43737</v>
       </c>
       <c r="I27" s="2">
-        <v>43939</v>
+        <v>43743</v>
       </c>
       <c r="L27" s="2">
         <v>43779</v>
@@ -710,10 +693,10 @@
     </row>
     <row r="28" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H28" s="2">
-        <v>43940</v>
+        <v>43744</v>
       </c>
       <c r="I28" s="2">
-        <v>43946</v>
+        <v>43750</v>
       </c>
       <c r="L28" s="2">
         <v>43786</v>
@@ -724,10 +707,10 @@
     </row>
     <row r="29" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H29" s="2">
-        <v>43947</v>
+        <v>43751</v>
       </c>
       <c r="I29" s="2">
-        <v>43953</v>
+        <v>43757</v>
       </c>
       <c r="L29" s="2">
         <v>43793</v>
@@ -738,273 +721,473 @@
     </row>
     <row r="30" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H30" s="2">
-        <v>43954</v>
+        <v>43758</v>
       </c>
       <c r="I30" s="2">
-        <v>43960</v>
+        <v>43764</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H31" s="2">
-        <v>43961</v>
+        <v>43765</v>
       </c>
       <c r="I31" s="2">
-        <v>43967</v>
+        <v>43771</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H32" s="2">
-        <v>43968</v>
+        <v>43772</v>
       </c>
       <c r="I32" s="2">
-        <v>43974</v>
+        <v>43778</v>
       </c>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H33" s="2">
-        <v>43975</v>
+        <v>43779</v>
       </c>
       <c r="I33" s="2">
-        <v>43981</v>
+        <v>43785</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H34" s="2">
-        <v>43982</v>
+        <v>43786</v>
       </c>
       <c r="I34" s="2">
-        <v>43988</v>
+        <v>43792</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H35" s="2">
-        <v>43989</v>
+        <v>43793</v>
       </c>
       <c r="I35" s="2">
-        <v>43995</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H36" s="2">
-        <v>43996</v>
+        <v>43800</v>
       </c>
       <c r="I36" s="2">
-        <v>44002</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H37" s="2">
-        <v>44003</v>
+        <v>43807</v>
       </c>
       <c r="I37" s="2">
-        <v>44009</v>
+        <v>43813</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H38" s="2">
-        <v>44010</v>
+        <v>43814</v>
       </c>
       <c r="I38" s="2">
-        <v>44016</v>
+        <v>43820</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H39" s="2">
-        <v>44017</v>
+        <v>43821</v>
       </c>
       <c r="I39" s="2">
-        <v>44023</v>
+        <v>43827</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H40" s="2">
-        <v>44024</v>
+        <v>43828</v>
       </c>
       <c r="I40" s="2">
-        <v>44030</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H41" s="2">
-        <v>44031</v>
+        <v>43835</v>
       </c>
       <c r="I41" s="2">
-        <v>44037</v>
+        <v>43841</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H42" s="2">
-        <v>44038</v>
+        <v>43842</v>
       </c>
       <c r="I42" s="2">
-        <v>44044</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H43" s="2">
-        <v>44045</v>
+        <v>43849</v>
       </c>
       <c r="I43" s="2">
-        <v>44051</v>
+        <v>43855</v>
       </c>
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H44" s="2">
-        <v>44052</v>
+        <v>43856</v>
       </c>
       <c r="I44" s="2">
-        <v>44058</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H45" s="2">
-        <v>44059</v>
+        <v>43863</v>
       </c>
       <c r="I45" s="2">
-        <v>44065</v>
+        <v>43869</v>
       </c>
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H46" s="2">
-        <v>44066</v>
+        <v>43870</v>
       </c>
       <c r="I46" s="2">
-        <v>44072</v>
+        <v>43876</v>
       </c>
     </row>
     <row r="47" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H47" s="2">
-        <v>44073</v>
+        <v>43877</v>
       </c>
       <c r="I47" s="2">
-        <v>44079</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H48" s="2">
-        <v>44080</v>
+        <v>43884</v>
       </c>
       <c r="I48" s="2">
-        <v>44086</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" s="2">
-        <v>44087</v>
+        <v>43891</v>
       </c>
       <c r="I49" s="2">
-        <v>44093</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" s="2">
-        <v>44094</v>
+        <v>43898</v>
       </c>
       <c r="I50" s="2">
-        <v>44100</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51" s="2">
-        <v>44101</v>
+        <v>43905</v>
       </c>
       <c r="I51" s="2">
-        <v>44107</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52" s="2">
-        <v>44108</v>
+        <v>43912</v>
       </c>
       <c r="I52" s="2">
-        <v>44114</v>
+        <v>43918</v>
       </c>
     </row>
     <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53" s="2">
-        <v>44115</v>
+        <v>43919</v>
       </c>
       <c r="I53" s="2">
-        <v>44121</v>
+        <v>43925</v>
       </c>
     </row>
     <row r="54" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H54" s="2">
-        <v>44122</v>
+        <v>43926</v>
       </c>
       <c r="I54" s="2">
-        <v>44128</v>
+        <v>43932</v>
       </c>
     </row>
     <row r="55" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H55" s="2">
-        <v>44129</v>
+        <v>43933</v>
       </c>
       <c r="I55" s="2">
-        <v>44135</v>
+        <v>43939</v>
       </c>
     </row>
     <row r="56" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H56" s="2">
+        <v>43940</v>
+      </c>
+      <c r="I56" s="2">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="2">
+        <v>43947</v>
+      </c>
+      <c r="I57" s="2">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H58" s="2">
+        <v>43954</v>
+      </c>
+      <c r="I58" s="2">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H59" s="2">
+        <v>43961</v>
+      </c>
+      <c r="I59" s="2">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H60" s="2">
+        <v>43968</v>
+      </c>
+      <c r="I60" s="2">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H61" s="2">
+        <v>43975</v>
+      </c>
+      <c r="I61" s="2">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H62" s="2">
+        <v>43982</v>
+      </c>
+      <c r="I62" s="2">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H63" s="2">
+        <v>43989</v>
+      </c>
+      <c r="I63" s="2">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H64" s="2">
+        <v>43996</v>
+      </c>
+      <c r="I64" s="2">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H65" s="2">
+        <v>44003</v>
+      </c>
+      <c r="I65" s="2">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H66" s="2">
+        <v>44010</v>
+      </c>
+      <c r="I66" s="2">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H67" s="2">
+        <v>44017</v>
+      </c>
+      <c r="I67" s="2">
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H68" s="2">
+        <v>44024</v>
+      </c>
+      <c r="I68" s="2">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H69" s="2">
+        <v>44031</v>
+      </c>
+      <c r="I69" s="2">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H70" s="2">
+        <v>44038</v>
+      </c>
+      <c r="I70" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H71" s="2">
+        <v>44045</v>
+      </c>
+      <c r="I71" s="2">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H72" s="2">
+        <v>44052</v>
+      </c>
+      <c r="I72" s="2">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H73" s="2">
+        <v>44059</v>
+      </c>
+      <c r="I73" s="2">
+        <v>44065</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H74" s="2">
+        <v>44066</v>
+      </c>
+      <c r="I74" s="2">
+        <v>44072</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H75" s="2">
+        <v>44073</v>
+      </c>
+      <c r="I75" s="2">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H76" s="2">
+        <v>44080</v>
+      </c>
+      <c r="I76" s="2">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H77" s="2">
+        <v>44087</v>
+      </c>
+      <c r="I77" s="2">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H78" s="2">
+        <v>44094</v>
+      </c>
+      <c r="I78" s="2">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H79" s="2">
+        <v>44101</v>
+      </c>
+      <c r="I79" s="2">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H80" s="2">
+        <v>44108</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H81" s="2">
+        <v>44115</v>
+      </c>
+      <c r="I81" s="2">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H82" s="2">
+        <v>44122</v>
+      </c>
+      <c r="I82" s="2">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H83" s="2">
+        <v>44129</v>
+      </c>
+      <c r="I83" s="2">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H84" s="2">
         <v>44136</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I84" s="2">
         <v>44142</v>
       </c>
     </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H72" s="2"/>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H85" s="2">
+        <v>44143</v>
+      </c>
+      <c r="I85" s="2">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H86" s="2">
+        <v>44150</v>
+      </c>
+      <c r="I86" s="2">
+        <v>44156</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H87" s="2">
+        <v>44157</v>
+      </c>
+      <c r="I87" s="2">
+        <v>44163</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
